--- a/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
+++ b/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoBRCBbG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\bldgs\SoBRCBbG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDC283-D537-4389-9EC5-4B5D5E6B503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="31220" windowHeight="15460" activeTab="1" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoBRCBbG" sheetId="2" r:id="rId2"/>
+    <sheet name="Green Remodeling" sheetId="3" r:id="rId2"/>
+    <sheet name="SoBRCBbG" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,21 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>SoBRCBbG Share of Building Retrofit Costs Borne by Government</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Source:</t>
-  </si>
-  <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/about/federal_tax_credits/non_business_energy_property_tax_credits</t>
-  </si>
-  <si>
-    <t>Equipment Tax Credits for Primary Residences</t>
   </si>
   <si>
     <t>Notes</t>
@@ -81,16 +70,99 @@
   <si>
     <t>Government Cost Share</t>
   </si>
+  <si>
+    <t>SoBRCBbG Share of Building Retrofit Costs Borne by Government</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.greenremodeling.or.kr/support/sup1000.asp</t>
+  </si>
+  <si>
+    <t>LH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동 avg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단독 avg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>residential average :</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 그린리모델링 사업의 상환 방식은 원금균등 상환임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ** 100만원 대출 시 3% 이자 지원금 비율로 계산함 (네이버 이자 계산기의 대출이자계산 기능을 이용함)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green remodelling projects</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private buildings</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea has a building retrofit cost support mechanism called "Green Remodelling Projects".</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This project 3% of loan interest. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the real support costs can vary by the loan period, we used the averaged value. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loan month (month)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>House</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loan support (%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share of govt. support of the total repayment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +170,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +178,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,17 +186,63 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,18 +258,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,121 +616,2936 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01810828-2E37-43FF-9A71-F4460C03E7FB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{E1B5812F-3104-4D2A-8EFF-45948AF0F1E7}"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17301020-6E33-4FBF-8306-93C4662876BD}">
+  <dimension ref="A2:S135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.58203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="51" x14ac:dyDescent="0.45">
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <f>151250/1151250</f>
+        <v>0.13137893593919653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <f>76250/1076250</f>
+        <v>7.0847851335656215E-2</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20">
+        <f>AVERAGE(G4:G7)</f>
+        <v>4.0336634339671149E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="4">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15">
+        <f>46250/1046250</f>
+        <v>4.4205495818399047E-2</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="4">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15">
+        <f>31250/1031250</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15">
+        <f>16250/1016250</f>
+        <v>1.5990159901599015E-2</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="15">
+        <f>76250/1076250</f>
+        <v>7.0847851335656215E-2</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="20">
+        <f>AVERAGE(G8:G9)</f>
+        <v>5.7526673577027634E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="4">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15">
+        <f>46250/1046250</f>
+        <v>4.4205495818399047E-2</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="16">
+        <f>AVERAGE(I4:I9)</f>
+        <v>4.8931653958349391E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I8:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF72B00-B157-41C5-B107-14ECB7FAB6F3}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B2" s="17">
+        <f>'Green Remodeling'!I10</f>
+        <v>4.8931653958349391E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17">
+        <f>'Green Remodeling'!I10</f>
+        <v>4.8931653958349391E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="17">
+        <f>'Green Remodeling'!G3</f>
+        <v>0.13137893593919653</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>